--- a/document/交易大盘数据库设计表@20180301.xlsx
+++ b/document/交易大盘数据库设计表@20180301.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="10044" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287">
   <si>
     <t>user_tab</t>
   </si>
@@ -904,6 +904,9 @@
     <t>公告封面图地址</t>
   </si>
   <si>
+    <t>路径为1时,默认的图片路径</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -1000,10 +1003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1049,6 +1052,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1056,36 +1110,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,15 +1131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,6 +1142,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,62 +1193,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,7 +1245,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,13 +1335,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,115 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,6 +1511,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1525,8 +1567,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1547,27 +1591,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1581,177 +1608,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5041,7 +5044,7 @@
   <sheetPr/>
   <dimension ref="B2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -6739,8 +6742,8 @@
   <sheetPr/>
   <dimension ref="B2:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -7535,17 +7538,19 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="2:11">
       <c r="B38" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
@@ -7612,7 +7617,7 @@
         <v>251</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -7688,7 +7693,7 @@
         <v>255</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>17</v>
@@ -7710,7 +7715,7 @@
         <v>253</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>17</v>
@@ -7732,7 +7737,7 @@
         <v>257</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>17</v>
@@ -7747,17 +7752,19 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="10" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="2:11">
       <c r="B48" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
@@ -7821,10 +7828,10 @@
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="2:11">
       <c r="B52" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -7897,10 +7904,10 @@
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="2:11">
       <c r="B55" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>17</v>
@@ -7919,10 +7926,10 @@
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="2:11">
       <c r="B56" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>17</v>
@@ -7941,13 +7948,13 @@
     </row>
     <row r="57" ht="14.25" customHeight="1" spans="2:11">
       <c r="B57" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
@@ -7981,10 +7988,10 @@
     </row>
     <row r="60" s="3" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B60" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -8029,13 +8036,13 @@
     </row>
     <row r="62" s="3" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B62" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E62" s="29">
         <v>6</v>
@@ -8050,15 +8057,15 @@
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B63" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>17</v>
@@ -8077,16 +8084,16 @@
     </row>
     <row r="64" s="3" customFormat="1" ht="15" customHeight="1" spans="2:11">
       <c r="B64" s="27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>15</v>
@@ -8096,7 +8103,7 @@
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="1" ht="15" customHeight="1" spans="2:11">

--- a/document/交易大盘数据库设计表@20180301.xlsx
+++ b/document/交易大盘数据库设计表@20180301.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10044" activeTab="3"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户系统" sheetId="1" r:id="rId1"/>
@@ -1003,10 +1003,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1050,7 +1050,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1059,13 +1083,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,14 +1118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,6 +1126,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,76 +1171,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,11 +1185,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1245,7 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1257,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,43 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1329,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,25 +1377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,49 +1407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,24 +1513,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,10 +1563,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1591,11 +1585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,8 +1603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,148 +1613,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5044,8 +5044,8 @@
   <sheetPr/>
   <dimension ref="B2:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6742,7 +6742,7 @@
   <sheetPr/>
   <dimension ref="B2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
